--- a/src/test/resources/testData/BestBuyTestData.xlsx
+++ b/src/test/resources/testData/BestBuyTestData.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Automation\BestBuyGuvi\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF7D2A6-DA9E-4D4B-9887-9B54A0327045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{081FA032-B12B-49F1-908D-933460CF7B70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SignUpTestData" sheetId="1" r:id="rId1"/>
+    <sheet name="ShoppingTestData" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>email</t>
   </si>
@@ -37,6 +38,12 @@
   </si>
   <si>
     <t>Sriramsangi@2224</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>PNY - 32GB Attaché 4 Type A USB 2.0 Flash Drive 3-Pack - Black</t>
   </si>
 </sst>
 </file>
@@ -368,7 +375,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
@@ -401,4 +408,32 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA4ED332-01BD-492C-8A33-07CFF562648F}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="53.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/testData/BestBuyTestData.xlsx
+++ b/src/test/resources/testData/BestBuyTestData.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Automation\BestBuyGuvi\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{081FA032-B12B-49F1-908D-933460CF7B70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C84CBD03-02DB-4FDC-AA9A-EF66B02B1416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SignUpTestData" sheetId="1" r:id="rId1"/>
+    <sheet name="SignInTestData" sheetId="1" r:id="rId1"/>
     <sheet name="ShoppingTestData" sheetId="2" r:id="rId2"/>
+    <sheet name="SignUpTestData" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>email</t>
   </si>
@@ -44,6 +45,36 @@
   </si>
   <si>
     <t>PNY - 32GB Attaché 4 Type A USB 2.0 Flash Drive 3-Pack - Black</t>
+  </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>psw1</t>
+  </si>
+  <si>
+    <t>psw2</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>ExampleTest#98767</t>
+  </si>
+  <si>
+    <t>TestExample@gmail.com</t>
+  </si>
+  <si>
+    <t>9489124745</t>
   </si>
 </sst>
 </file>
@@ -376,7 +407,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -414,7 +445,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA4ED332-01BD-492C-8A33-07CFF562648F}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
@@ -436,4 +467,67 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62EC02B7-0A5A-4CB2-8766-69014585FE4A}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{64EC828B-48E2-4756-B4D3-E5361B3FAD9C}"/>
+    <hyperlink ref="D2" r:id="rId2" display="Test@1234" xr:uid="{78A3F2EF-1F72-4F28-9781-ADFB6BA74AB5}"/>
+    <hyperlink ref="E2" r:id="rId3" display="Test@1234" xr:uid="{905F698B-60B2-4CD7-B5DB-8362C1F2E415}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/testData/BestBuyTestData.xlsx
+++ b/src/test/resources/testData/BestBuyTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Automation\BestBuyGuvi\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C84CBD03-02DB-4FDC-AA9A-EF66B02B1416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9995D122-3C6D-48E3-BD58-A8164C30619F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -71,10 +71,10 @@
     <t>ExampleTest#98767</t>
   </si>
   <si>
-    <t>TestExample@gmail.com</t>
-  </si>
-  <si>
     <t>9489124745</t>
+  </si>
+  <si>
+    <t>TestExample5437@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -474,7 +474,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B2" sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -510,7 +510,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>13</v>
@@ -519,7 +519,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
